--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_127.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_127.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,642 +488,664 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>jaah_22</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_255</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.08269794721407625</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['Bb:maj6', 'Bb:maj6', 'G:min7', 'C:min7'], ['Bb', 'Bb', 'Bb', 'Bb']]</t>
-        </is>
+          <t>isophonics_124</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>isophonics_109</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.5833333333333334</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['D:maj6/5', 'D:maj6', 'D:maj6/5', 'G:maj6/5'], ['D', 'D/5', 'D', 'D/5']]</t>
+          <t>[['F', 'Bb', 'F']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(3.82, 5.79), (66.74, 74.43)]</t>
+          <t>[['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(84.770816, 88.102879), (90.564195, 93.919478)]</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:6rHh8urosEFRI67xVa6fzU</t>
-        </is>
-      </c>
+          <t>[('0:00:15.124263', '0:00:20.058503')]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[('0:01:34.925000', '0:01:40.821000')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_69</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>jaah_39</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1087832393231265</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['E', 'C', 'E'], ['E', 'E', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_163</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>jaah_0</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.2022988505747126</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['Ab', 'E', 'Ab'], ['Ab', 'Ab', 'Db']]</t>
+          <t>[['G#:dim7', 'F:maj/C', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(7.659045, 16.320087), (22.125076, 33.711833)]</t>
+          <t>[['D:dim7', 'Ab', 'Eb:7', 'Ab']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(10.12, 12.17), (123.03, 126.19)]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
+          <t>[('0:01:09.520000', '0:01:13.720000')]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[('0:01:02.360000', '0:01:06.920000')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_128</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_265</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1384615384615385</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
-        </is>
+          <t>isophonics_48</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>isophonics_67</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.1482352941176471</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A']]</t>
+          <t>[['E', 'A', 'F#:min']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(18.32, 25.82)]</t>
+          <t>[['G', 'C', 'A:min']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(105.425056, 115.003287)]</t>
+          <t>[('0:00:00.440395', '0:00:08.010228')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:01:31.957392', '0:01:37.773990')]</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_128</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_116</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.07480106100795755</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>isophonics_157</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>isophonics_208</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.3205128205128205</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7/G', 'G:min']]</t>
+          <t>[['E', 'B', 'E', 'B']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(46.52, 48.94)]</t>
+          <t>[['E', 'B', 'E', 'B']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(19.98, 27.18)]</t>
+          <t>[('0:01:29.257527', '0:01:47.125283')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:02:28.857891', '0:02:36.114126')]</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_97</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_234</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
-        </is>
+          <t>isophonics_157</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_90</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.425</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['Eb/5', 'Ab/2', 'Eb']]</t>
+          <t>[['A', 'E', 'A'], ['E', 'A', 'E']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(69.36, 73.2)]</t>
+          <t>[['G:maj', 'D:maj/A', 'G:maj/B'], ['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(75.439, 83.381)]</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
+          <t>[('0:01:08.150589', '0:01:15.697074'), ('0:00:02.612267', '0:00:17.443474')]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[('0:02:37.840000', '0:02:40.980000'), ('0:02:34.760000', '0:02:39.840000')]</t>
+        </is>
+      </c>
       <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_197</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_43</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.1652173913043478</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['F#:min', 'C#:7', 'F#:min']]</t>
-        </is>
+          <t>schubert-winterreise_8</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_97</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.3333333333333333</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>[['F#:7/B', 'F#:(3,5,b7,b9)/B', 'B:min']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(2.86, 5.3)]</t>
+          <t>[['A:7', 'A:(3,5,b7,b9)/G', 'D:min/F']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(41.32, 48.94)]</t>
+          <t>[('0:00:04.940000', '0:00:23.240000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>[('0:02:20.860000', '0:02:24.100000')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_28</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>jaah_9</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.2435064935064935</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:maj', 'A:maj']]</t>
-        </is>
+          <t>schubert-winterreise_169</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_55</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.1641025641025641</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['C:7', 'F', 'F']]</t>
+          <t>[['C:min', 'G:min', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(5.7, 10.9)]</t>
+          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(51.69, 55.72)]</t>
+          <t>[('0:00:17.860000', '0:00:28.300000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr"/>
+          <t>[('0:00:41.080000', '0:00:43.340000')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_26</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_145</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.5333333333333333</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['F:maj', 'A#:maj', 'F:maj', 'A#:maj']]</t>
-        </is>
+          <t>schubert-winterreise_27</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_197</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.3726708074534161</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(124.92, 129.32)]</t>
+          <t>[['F#:maj/A#', 'C#:7', 'F#:maj', 'F#:min']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(143.58, 149.12)]</t>
+          <t>[('0:01:04.300000', '0:01:07.900000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:19.720000', '0:00:23.080000')]</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_188</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>isophonics_135</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.2202898550724638</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['F:maj', 'A#:maj', 'F:maj', 'A#:maj']]</t>
-        </is>
+          <t>schubert-winterreise_147</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_130</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.5397727272727273</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E', 'A']]</t>
+          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(128.76, 134.0)]</t>
+          <t>[['E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(14.450219, 23.088042)]</t>
+          <t>[('0:00:19.780000', '0:00:25.820000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr"/>
+          <t>[('0:00:25.260000', '0:00:45.540000')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_168</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>jaah_66</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.05610859728506788</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['D#:maj/A#', 'D#:min/A#', 'A#:maj']]</t>
-        </is>
+          <t>schubert-winterreise_36</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_31</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.3794871794871795</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['Db', 'Db:min', 'Ab']]</t>
+          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(5.32, 11.7)]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(49.58, 52.97)]</t>
+          <t>[('0:01:14.700000', '0:01:34.120000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr"/>
+          <t>[('0:00:30.020000', '0:00:44.280000')]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_46</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_73</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.2548262548262548</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['D', 'G', 'D']]</t>
-        </is>
+          <t>isophonics_298</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_59</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.75</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>[['G', 'C', 'G', 'D']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(28.921995, 33.101587)]</t>
+          <t>[['E:maj/G#', 'A:maj', 'E:maj', 'B:maj']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(65.2, 67.5)]</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
+          <t>[('0:00:00.344657', '0:00:14.158934')]</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[('0:00:59.220000', '0:01:11.120000')]</t>
+        </is>
+      </c>
       <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_127</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_129</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.2559523809523809</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['D', 'G', 'D', 'G', 'D']]</t>
-        </is>
+          <t>schubert-winterreise_95</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_63</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['F:maj', 'A#:maj', 'F:maj', 'A#:maj', 'F:maj']]</t>
+          <t>[['C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'A#/D', 'A#:7', 'D#', 'C:min', 'F:7/C', 'A#', 'D#/G', 'A#:7/F', 'D#/G', 'A#:7', 'D#', 'D:dim7/D#', 'D#:7', 'G#', 'F:min', 'A#:7/F', 'D#', 'G#/C', 'D#:7/A#', 'G#/C', 'D#', 'G#', 'D:hdim7/F', 'C:min/D#', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'B:dim7/C', 'C:min', 'F:min', 'C:min/G', 'F:min7/G#', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(17.965212, 29.679679)]</t>
+          <t>[['C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'A#/D', 'A#:7', 'D#', 'C:min', 'F:7/C', 'A#', 'D#/G', 'A#:7/F', 'D#/G', 'A#:7', 'D#', 'D:dim7/D#', 'D#:7', 'G#', 'F:min', 'A#:7/F', 'D#', 'G#/C', 'D#:7/A#', 'G#/C', 'D#', 'G#', 'D:hdim7/F', 'C:min/D#', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'B:dim7/C', 'C:min', 'F:min', 'C:min/G', 'F:min7/G#', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(105.0, 108.84)]</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:00:13.400000', '0:01:28.140000')]</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[('0:00:17.200000', '0:01:42.900000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_290</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_174</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.08282828282828282</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['C', 'F', 'G'], ['C', 'G', 'C']]</t>
-        </is>
+          <t>schubert-winterreise_193</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_121</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'A'], ['D', 'A', 'D']]</t>
+          <t>[['C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'A#/D', 'A#:7', 'D#', 'C:min', 'F:7/C', 'A#', 'D#/G', 'A#:7/F', 'D#/G', 'A#:7', 'D#', 'D:dim7/D#', 'D#:7', 'G#', 'F:min', 'A#:7/F', 'D#', 'G#/C', 'D#:7/A#', 'G#/C', 'D#', 'G#', 'D:hdim7/F', 'C:min/D#', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'B:dim7/C', 'C:min', 'F:min', 'C:min/G', 'F:min7/G#', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(25.807392, 30.753242), (8.482392, 11.666439)]</t>
+          <t>[['C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'A#/D', 'A#:7', 'D#', 'C:min', 'F:7/C', 'A#', 'D#/G', 'A#:7/F', 'D#/G', 'A#:7', 'D#', 'D:dim7/D#', 'D#:7', 'G#', 'F:min', 'A#:7/F', 'D#', 'G#/C', 'D#:7/A#', 'G#/C', 'D#', 'G#', 'D:hdim7/F', 'C:min/D#', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'B:dim7/C', 'C:min', 'F:min', 'C:min/G', 'F:min7/G#', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(43.934, 45.874), (6.536, 9.774)]</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
+          <t>[('0:00:16.060000', '0:01:39.240000')]</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[('0:00:17.900000', '0:01:52.420000')]</t>
+        </is>
+      </c>
       <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_181</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_84</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
+          <t>schubert-winterreise_168</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_0</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
         <v>1</v>
       </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['D#:maj', 'A#:maj', 'A#:min', 'F:min/C', 'C:7', 'F:min', 'G#:maj', 'G#:min', 'A#:maj', 'D#:7/C#', 'G#:maj/C', 'D#:maj/A#', 'A#:7', 'D#:maj', 'D#:maj', 'D#:7', 'G#:maj', 'C:(3,5,b7,b9)/G#', 'F:min/G#', 'D#:maj/A#', 'A#:maj']]</t>
-        </is>
-      </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['D#:maj', 'A#:maj', 'A#:min', 'F:min/C', 'C:7', 'F:min', 'G#:maj', 'G#:min', 'A#:maj', 'D#:7/C#', 'G#:maj/C', 'D#:maj/A#', 'A#:7', 'D#:maj', 'D#:maj', 'D#:7', 'G#:maj', 'C:(3,5,b7,b9)/G#', 'F:min/G#', 'D#:maj/A#', 'A#:maj']]</t>
+          <t>[['A#:min', 'A#:7', 'D#:maj/A#', 'D#:min/A#', 'A#:maj', 'A#:min', 'F:maj', 'A#:min', 'A#:7', 'D#:min/A#', 'F:7/A#', 'A#:min', 'D#:min/A#', 'A#:min', 'C#:maj/G#', 'D#:min/F#', 'C#:maj/F', 'G#:7', 'C#:maj', 'A#:min', 'A#:7/G#', 'D#:maj/G', 'G#:(3,5,b7,b9)/F#', 'C#:maj/F', 'F:(3,5,b7,b9)/D#', 'F#:(3,5)', 'A#:min/F', 'F:7', 'F#:(3,5)', 'A#:min/F', 'F:7', 'A#:min', 'A#:7', 'D#:maj', 'D#:min', 'A#:maj', 'A#:min/A#', 'F:maj', 'A#:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(41.14, 85.34)]</t>
+          <t>[['B:min', 'B:7', 'E:maj/B', 'E:min/B', 'B:maj', 'B:min', 'F#:maj', 'B:min', 'B:7', 'E:min/B', 'F#:7/B', 'B:min', 'E:min/B', 'B:min', 'D:maj/A', 'E:min/G', 'D:maj/F#', 'A:7', 'D:maj', 'B:min', 'B:7/A', 'E:maj/G#', 'A:(3,5,b7,b9)/G', 'D:maj/F#', 'F#:(3,5,b7,b9)/E', 'G:(3,5)', 'B:min/F#', 'F#:7', 'G:(3,5)', 'B:min/F#', 'F#:7', 'B:min', 'B:7', 'E:maj', 'E:min', 'B:maj', 'B:min/B', 'F#:maj', 'B:min']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(40.1, 84.58)]</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
+          <t>[('0:00:00.780000', '0:01:38.820000')]</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[('0:00:00.780000', '0:01:36.780000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>isophonics_269</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_115</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['A:min', 'A:min', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_101</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_174</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['D:min', 'D:min', 'D:min/A']]</t>
+          <t>[['B:min', 'F#:7/B', 'F#:(3,5,b7,b9)/B', 'B:min', 'F#:(3,5,b7,b9)/B', 'B:min']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(48.865, 56.883)]</t>
+          <t>[['A#:min', 'F:7/A#', 'F:(3,5,b7,b9)/A#', 'A#:min', 'F:(3,5,b7,b9)/A#', 'A#:min']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(31.16, 45.84)]</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_90</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_203</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.323076923076923</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(154.76, 159.84)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(18.26, 24.82)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:00:13.020000', '0:00:45.300000')]</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[('0:00:15.360000', '0:00:45.820000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
